--- a/static/data/data.xlsx
+++ b/static/data/data.xlsx
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
